--- a/MEDIA/_ 1102       _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102       _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102       _301_2020-10-12~2020-10-12)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102       _301_2020-10-30~2020-10-30)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>31092959</v>
+        <v>15471085</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>補9月加班費-林名富                    </t>
+          <t>睿騏營造-第10期款-取得使用執照-單號2020-10-01</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-1486</v>
+        <v>-1120000</v>
       </c>
       <c r="G4" t="n">
-        <v>31091473</v>
+        <v>14351085</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109866</t>
+          <t>110687</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>後龍中山                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>退-湖口達生-保證金                    </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>39292</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G5" t="n">
-        <v>31130765</v>
+        <v>14301085</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110620</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000067</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>收據-楊梅總店代訓-共2家                 </t>
+          <t>退訂/退代尋/退北市長春保證金-共3筆           </t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-30000</v>
+        <v>-70500</v>
       </c>
       <c r="G6" t="n">
-        <v>31100765</v>
+        <v>14230585</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109818</t>
+          <t>110734</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>發票-台中逢甲代訓-共1家                 </t>
+          <t>付淦鼎機電工程(有)公司-消防工程完成款          </t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-15000</v>
+        <v>-813750</v>
       </c>
       <c r="G7" t="n">
-        <v>31085765</v>
+        <v>13416835</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109818</t>
+          <t>110690</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>發票-北市農安代訓-共1家                 </t>
+          <t>付淦鼎機電工程(有)公司-消防工程完成款          </t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-15000</v>
+        <v>-99050</v>
       </c>
       <c r="G8" t="n">
-        <v>31070765</v>
+        <v>13317785</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109818</t>
+          <t>110690</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>匯鉑宴-支付內聯單2020-10-080290賴允中費用申請</t>
+          <t>退訂-共3筆                        </t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="G9" t="n">
-        <v>31070765</v>
+        <v>13316285</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109861</t>
+          <t>110768</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新竹橫山	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>玉山轉凱基森邦-500萬                  </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19638</v>
+        <v>5000000</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>31090403</v>
+        <v>18316285</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110641</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000844</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,38 +724,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>苗栗中正                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付10-1639謝雅蓮費用申請              </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31433</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-520</v>
       </c>
       <c r="G11" t="n">
-        <v>31121836</v>
+        <v>18315765</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000788</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,38 +765,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>楠梓翠屏                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付10-1638黃凱祺費用申請              </t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-11990</v>
       </c>
       <c r="G12" t="n">
-        <v>31151836</v>
+        <v>18303775</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000772</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,38 +806,38 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>桃園信光                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付10-1618任宇晨費用申請              </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40607</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1725</v>
       </c>
       <c r="G13" t="n">
-        <v>31192443</v>
+        <v>18302050</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000908</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,38 +847,38 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>竹北台元	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付10-1644任宇晨費用申請              </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16449</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-2240</v>
       </c>
       <c r="G14" t="n">
-        <v>31208892</v>
+        <v>18299810</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000920</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,38 +888,38 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>竹北福興                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付10-1647黃隆玄費用申請              </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17464</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-8920</v>
       </c>
       <c r="G15" t="n">
-        <v>31226356</v>
+        <v>18290890</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000716</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -934,21 +934,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>匯義強興-109/08月油品費用              </t>
+          <t>支付10-1634黃追億費用申請              </t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-112850</v>
+        <v>-3133</v>
       </c>
       <c r="G16" t="n">
-        <v>31113506</v>
+        <v>18287757</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109781</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -975,21 +975,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>支付10-1641游宇宸費用申請              </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1445825</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-3093</v>
       </c>
       <c r="G17" t="n">
-        <v>32559331</v>
+        <v>18284664</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109909</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1016,21 +1016,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>支付耿益芳費用申請                     </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1224956</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-2432</v>
       </c>
       <c r="G18" t="n">
-        <v>33784287</v>
+        <v>18282232</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109909</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1057,21 +1057,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>支付10-1637陳世偉費用申請              </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>610872</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-4707</v>
       </c>
       <c r="G19" t="n">
-        <v>34395159</v>
+        <v>18277525</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>109909</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1098,21 +1098,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10906月台北展NO113賴姿妤-桃園國強 工程款26萬 </t>
+          <t>支付10-1643胡毓樺費用申請              </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>260000</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1390</v>
       </c>
       <c r="G20" t="n">
-        <v>34655159</v>
+        <v>18276135</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>109909</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,38 +1134,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>堤諾林口店                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付富弘-10-1596陳紹軒費用申請           </t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>52948</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-5970</v>
       </c>
       <c r="G21" t="n">
-        <v>34708107</v>
+        <v>18270165</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>109941</t>
+          <t>110636</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4000023</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,38 +1175,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>堤諾長庚                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>匯社團法人台灣連鎖加盟促進協會-10-1657邱柏敏費用申請</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9808</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-244000</v>
       </c>
       <c r="G22" t="n">
-        <v>34717915</v>
+        <v>18026165</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>109941</t>
+          <t>110670</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4000024</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,38 +1216,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中一食品股份有限公司                              </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付永鉦-10-1577林堉鈖費用申請           </t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>38037</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-32340</v>
       </c>
       <c r="G23" t="n">
-        <v>34755952</v>
+        <v>17993825</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110049</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>5999894</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,38 +1257,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>北市文德                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>支付奇雲-10-1566林堉鈖費用申請           </t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25519</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-1260</v>
       </c>
       <c r="G24" t="n">
-        <v>34781471</v>
+        <v>17992565</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>110049</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000355</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>白河國泰                                    </t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19587</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="G25" t="n">
-        <v>34801058</v>
+        <v>17992545</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110621</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000536</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>北市五分	                                   </t>
+          <t>(結束)湖口達生                                </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23405</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-415</v>
       </c>
       <c r="G26" t="n">
-        <v>34824463</v>
+        <v>17992130</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110621</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000905</t>
+          <t>1000718</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>龍井竹坑                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>19087</v>
+        <v>16080</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>34843550</v>
+        <v>18008210</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>1000515</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>豐原南陽	                                   </t>
+          <t>梧棲中興	                                   </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>32840</v>
+        <v>16883</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>34876390</v>
+        <v>18025093</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>109860</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000856</t>
+          <t>1000898</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>板橋民族                                    </t>
+          <t>三重集美                                    </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16569</v>
+        <v>62535</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>34892959</v>
+        <v>18087628</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000153</t>
+          <t>1000151</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>內湖江南                                    </t>
+          <t>新營中正	                                   </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1512,29 +1512,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>77801</v>
+        <v>10380</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>34970760</v>
+        <v>18098008</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000146</t>
+          <t>1000834</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>汐止復興                                    </t>
+          <t>北市南京松江	                                 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1553,29 +1553,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>19063</v>
+        <v>40160</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>34989823</v>
+        <v>18138168</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000285</t>
+          <t>1000914</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>北市南海	                                   </t>
+          <t>堤諾林口店                                   </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1594,29 +1594,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24912</v>
+        <v>22890</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35014735</v>
+        <v>18161058</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000850</t>
+          <t>4000023</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>新竹湳雅	                                   </t>
+          <t>一次性廠商(收據,無正式憑證,EX:淘寶...)                </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29234</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G33" t="n">
-        <v>35043969</v>
+        <v>18160558</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110627</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000918</t>
+          <t>100169</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>桃園廈門                                    </t>
+          <t>堤諾長庚                                    </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1676,29 +1676,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>18893</v>
+        <v>48692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>35062862</v>
+        <v>18209250</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000910</t>
+          <t>4000024</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>土城永寧	                                   </t>
+          <t>竹東長春	                                   </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1717,29 +1717,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19714</v>
+        <v>39581</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>35082576</v>
+        <v>18248831</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000935</t>
+          <t>1000926</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>竹北六家嘉豐	                                 </t>
+          <t>南台科大	                                   </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>11978</v>
+        <v>6725</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>35094554</v>
+        <v>18255556</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000927</t>
+          <t>1000923</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>永和永利	                                   </t>
+          <t>樹林日新                                    </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22996</v>
+        <v>33360</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>35117550</v>
+        <v>18288916</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000954</t>
+          <t>1000738</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,38 +1831,38 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>台北八德                                    </t>
+          <t>一次性廠商(開發票)                              </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>9518</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-5880</v>
       </c>
       <c r="G38" t="n">
-        <v>35127068</v>
+        <v>18283036</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110728</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1000202</t>
+          <t>799999</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,38 +1872,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大社旗楠                                    </t>
+          <t>北市五分	                                   </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25583</v>
+        <v>12020</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>35152651</v>
+        <v>18295056</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1000595</t>
+          <t>1000905</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,38 +1913,38 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>斗六民生                                    </t>
+          <t>光泉食品股份有限公司                              </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20910</v>
+        <v>49026</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>35173561</v>
+        <v>18344082</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1000131</t>
+          <t>5999872</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,38 +1954,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>台中長春                                    </t>
+          <t>光泉食品股份有限公司                              </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>49843</v>
+        <v>49440</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>35223404</v>
+        <v>18393522</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1000264</t>
+          <t>5999872</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,38 +1995,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>伸港水尾                                    </t>
+          <t>喀漢堡世貿店                                  </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30293</v>
+        <v>340734</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>35253697</v>
+        <v>18734256</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110775</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1000474</t>
+          <t>3100001</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2036,38 +2036,38 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>宜蘭健康                                    </t>
+          <t>堤諾莊敬                                    </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7299</v>
+        <v>347520</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>35260996</v>
+        <v>19081776</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110775</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1000727</t>
+          <t>4000002</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2077,38 +2077,38 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>大甲中山	                                   </t>
+          <t>堤諾濟南                                    </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>50101</v>
+        <v>405328</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>35311097</v>
+        <v>19487104</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110775</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1000865</t>
+          <t>4000003</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2118,38 +2118,38 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>楊梅四維                                    </t>
+          <t>北市成都	                                   </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>21311</v>
+        <v>21565</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>35332408</v>
+        <v>19508669</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>109918</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1000252</t>
+          <t>1000955</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>北市和平                                    </t>
+          <t>堤諾士林中正	                                 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2168,29 +2168,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>15626</v>
+        <v>420693</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>35348034</v>
+        <v>19929362</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110775</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1000414</t>
+          <t>4000020</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>桃園大業	                                   </t>
+          <t>瓦薩內科                                    </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2209,29 +2209,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29062</v>
+        <v>514917</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>35377096</v>
+        <v>20444279</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110775</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1000873</t>
+          <t>2000004</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>羅東成功                                    </t>
+          <t>神岡豐洲	                                   </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2250,29 +2250,29 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20622</v>
+        <v>19666</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>35397718</v>
+        <v>20463945</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1000317</t>
+          <t>1000922</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>善化大成                                    </t>
+          <t>東勢東崎                                    </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2291,29 +2291,29 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41620</v>
+        <v>33966</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>35439338</v>
+        <v>20497911</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>110764</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1000629</t>
+          <t>1000111</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201030</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2323,29 +2323,562 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>台中逢甲                                    </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>255230</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>20753141</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1000622</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北市農安                                    </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>313589</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>21066730</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1000750</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中壢中北                                    </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>252923</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>21319653</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1000826</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>發票-中壢中北代訓-共3家                 </t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>-45000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>35394338</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>109818</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10906台北展NO2賴景亭/陳郡甫/賴景豪-頭份昌榮 工程</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>330000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>21649653</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>110803</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>北市愛國                                    </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>39888</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>21689541</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1000433</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>三重光復                                    </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>70856</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>21760397</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1000781</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>北市杭州                                    </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>67520</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>21827917</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1000366</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>北市杭州                                    </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>80441</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>21908358</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>110775</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1000366</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>歐力士10月份租金(共6台車)               </t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-218400</v>
+      </c>
+      <c r="G58" t="n">
+        <v>21689958</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>110554</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>和運10月份租金(共9台車)                </t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-313100</v>
+      </c>
+      <c r="G59" t="n">
+        <v>21376858</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>110554</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>順益10月份租金(共1台車)-續租1年           </t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-31100</v>
+      </c>
+      <c r="G60" t="n">
+        <v>21345758</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>110554</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>退訂                            </t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="G61" t="n">
+        <v>21343258</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>110611</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>退訂                            </t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-15500</v>
+      </c>
+      <c r="G62" t="n">
+        <v>21327758</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>110617</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20201030</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>睿騏營造-追加工程款-配合凍庫基礎工程增加40cm     </t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-267592</v>
+      </c>
+      <c r="G63" t="n">
+        <v>21060166</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>110687</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>0</t>
         </is>
